--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblätter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Sensorboard auf neuem Modul</t>
+  </si>
+  <si>
+    <t>Erstellung Präsentation und Lerntagebuch</t>
   </si>
 </sst>
 </file>
@@ -456,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,6 +711,12 @@
         <f t="shared" si="0"/>
         <v>42669</v>
       </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -748,7 +757,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Erstellung Präsentation und Lerntagebuch</t>
+  </si>
+  <si>
+    <t>RF Kommunikation</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,6 +738,12 @@
         <f t="shared" si="0"/>
         <v>42672</v>
       </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -757,7 +766,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -745,46 +745,52 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42673</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>42674</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B4:B34)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>RF Kommunikation</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -802,7 +805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -835,6 +840,12 @@
         <f>A4+1</f>
         <v>42676</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1016,7 +1027,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -806,7 +806,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -870,6 +870,12 @@
         <f t="shared" si="0"/>
         <v>42680</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1027,7 +1033,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -806,7 +806,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -882,6 +882,12 @@
         <f t="shared" si="0"/>
         <v>42681</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1033,7 +1039,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>RF</t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,6 +158,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -806,7 +810,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -900,6 +904,12 @@
         <f t="shared" si="0"/>
         <v>42683</v>
       </c>
+      <c r="B12" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1039,7 +1049,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -810,7 +810,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,6 +934,12 @@
         <f t="shared" si="0"/>
         <v>42687</v>
       </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1049,7 +1055,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>10.5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -810,7 +810,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -941,97 +941,109 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42688</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42689</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42690</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42691</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42692</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42693</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42694</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42695</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42696</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42697</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42698</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42699</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42700</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42701</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42702</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42703</v>
@@ -1055,7 +1067,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>12</v>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -810,7 +810,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -970,6 +970,12 @@
         <f t="shared" si="0"/>
         <v>42690</v>
       </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -982,6 +988,12 @@
         <f t="shared" si="0"/>
         <v>42692</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1005,6 +1017,12 @@
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42696</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1085,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>RF (Node Timer)</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,11 +1033,23 @@
         <f t="shared" si="0"/>
         <v>42697</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42698</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1085,7 +1100,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>25.5</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>RF (Node Timer)</t>
+  </si>
+  <si>
+    <t>Teammeeting, RF</t>
+  </si>
+  <si>
+    <t>Teammeeting, RF + UART</t>
+  </si>
+  <si>
+    <t>Kick-Tests; RF + UART</t>
   </si>
 </sst>
 </file>
@@ -812,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,25 +1091,31 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>42704</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1127,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1145,6 +1162,12 @@
         <f>A4+1</f>
         <v>42706</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1163,6 +1186,12 @@
         <f t="shared" si="0"/>
         <v>42709</v>
       </c>
+      <c r="B8">
+        <v>5.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1329,7 +1358,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -1128,7 +1128,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1187,7 @@
         <v>42709</v>
       </c>
       <c r="B8">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Dezember" sheetId="3" r:id="rId3"/>
     <sheet name="Jänner" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Kick-Tests; RF + UART</t>
+  </si>
+  <si>
+    <t>Teammeeting, Gyro in Node Debugging</t>
+  </si>
+  <si>
+    <t>System_printfs funktionieren nun, Gyro in neuem Node Debugging</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1134,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1204,11 +1210,23 @@
         <f t="shared" si="0"/>
         <v>42711</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42712</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1376,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>8</v>
+        <v>13.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>System_printfs funktionieren nun, Gyro in neuem Node Debugging</t>
+  </si>
+  <si>
+    <t>Node Gyro</t>
+  </si>
+  <si>
+    <t>Node Gyro, Bridge UART</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -165,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +186,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1131,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1234,6 +1246,12 @@
         <f t="shared" si="0"/>
         <v>42713</v>
       </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1252,11 +1270,23 @@
         <f t="shared" si="0"/>
         <v>42716</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42717</v>
+      </c>
+      <c r="B16">
+        <v>5.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1376,11 +1406,21 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>13.5</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="2">
+        <f>Oktober!B36+November!B36+B36</f>
+        <v>108.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Teammeetingl; Integration Bridge UART und Kommunikation mitUart teil des Servers</t>
+  </si>
+  <si>
+    <t>RF + Teammeeting</t>
   </si>
 </sst>
 </file>
@@ -839,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1146,7 +1152,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,97 +1295,103 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42718</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42719</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42720</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42721</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42722</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42724</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42725</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42726</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42727</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42728</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42729</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42730</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42731</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42732</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42733</v>
@@ -1406,7 +1418,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1415,7 +1427,7 @@
       </c>
       <c r="B38" s="2">
         <f>Oktober!B36+November!B36+B36</f>
-        <v>108.5</v>
+        <v>110.5</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienSoccer\Zeitblaetter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tobias\Documents\AlienHacky\Zeitblaetter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>RF + Teammeeting</t>
+  </si>
+  <si>
+    <t>Bridge debug hinzugefügt, Node debugged</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1155,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1330,6 +1333,12 @@
         <f t="shared" si="0"/>
         <v>42722</v>
       </c>
+      <c r="B21">
+        <v>1.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1418,7 +1427,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>29</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1436,7 @@
       </c>
       <c r="B38" s="2">
         <f>Oktober!B36+November!B36+B36</f>
-        <v>110.5</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Zeitblaetter/Tobias Breuß.xlsx
+++ b/Zeitblaetter/Tobias Breuß.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Bridge debug hinzugefügt, Node debugged</t>
+  </si>
+  <si>
+    <t>Node debug hinzugefügt, debugged und verschönert</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1345,6 +1348,12 @@
         <f t="shared" si="0"/>
         <v>42723</v>
       </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1427,7 +1436,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>30.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1445,7 @@
       </c>
       <c r="B38" s="2">
         <f>Oktober!B36+November!B36+B36</f>
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
